--- a/extraction/raw extraction/delprado1995/delprado1995.xlsx
+++ b/extraction/raw extraction/delprado1995/delprado1995.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/raw extraction/delprado1995/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA074B3-FDD0-F44C-94B0-CDBC693C19DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1D4B67-60FF-824F-B253-6ABCAD471171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16140" xr2:uid="{D19E04DA-7322-FC4D-B6CF-9048620AD0E9}"/>
+    <workbookView xWindow="29360" yWindow="-9580" windowWidth="27640" windowHeight="16140" xr2:uid="{D19E04DA-7322-FC4D-B6CF-9048620AD0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -59,6 +58,15 @@
   </si>
   <si>
     <t>bourgeana</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark respiration </t>
+  </si>
+  <si>
+    <t>net photosynthesis</t>
   </si>
 </sst>
 </file>
@@ -94,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C70FB0-60DE-4F44-800F-886DEB113E73}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="D113" sqref="D58:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,243 +443,2248 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2.73382453597363E-2</v>
+      </c>
+      <c r="B2">
+        <v>-0.414784394250514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2.64065708</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4.9678101219953996</v>
+      </c>
+      <c r="B3">
+        <v>-0.66119096509240105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>9.9078592422595193</v>
+      </c>
+      <c r="B4">
+        <v>-1.0554414784394199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>14.9819221323026</v>
+      </c>
+      <c r="B5">
+        <v>-2.58316221765913</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>19.92013930829</v>
+      </c>
+      <c r="B6">
+        <v>-3.6180698151950699</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>24.997443330514901</v>
+      </c>
+      <c r="B7">
+        <v>-4.0123203285420903</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>30.006542658131</v>
+      </c>
+      <c r="B8">
+        <v>-4.25872689938398</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3.05793775415708E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.71868583162217803</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4.9717558481297903</v>
+      </c>
+      <c r="B10">
+        <v>0.71868583162217803</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9800096630027699</v>
+      </c>
+      <c r="B11">
+        <v>0.17659137577001899</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>14.987911180899401</v>
+      </c>
+      <c r="B12">
+        <v>-0.48870636550308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>19.9962354551676</v>
+      </c>
+      <c r="B13">
+        <v>-1.00616016427104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>25.003855135483299</v>
+      </c>
+      <c r="B14">
+        <v>-1.7700205338809001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>30.011686193984701</v>
+      </c>
+      <c r="B15">
+        <v>-2.4599589322381901</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>3.2411321818255297E-2</v>
+      </c>
+      <c r="B16">
+        <v>1.3593429158110899</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5.0424970809678999</v>
+      </c>
+      <c r="B17">
+        <v>1.4579055441478399</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10.0528646776985</v>
+      </c>
+      <c r="B18">
+        <v>1.6550308008213499</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>14.991645528848</v>
+      </c>
+      <c r="B19">
+        <v>0.81724845995893203</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19.998701534001601</v>
+      </c>
+      <c r="B20">
+        <v>-0.143737166324438</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25.006462133107799</v>
+      </c>
+      <c r="B21">
+        <v>-0.85831622176591404</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30.014504569795001</v>
+      </c>
+      <c r="B22">
+        <v>-1.4743326488706301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>3.4666022466481601E-2</v>
+      </c>
+      <c r="B23">
+        <v>2.1478439425051299</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>4.97774489672664</v>
+      </c>
+      <c r="B24">
+        <v>2.8131416837782299</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9.9883238716431002</v>
+      </c>
+      <c r="B25">
+        <v>3.08418891170431</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>14.9976345774449</v>
+      </c>
+      <c r="B26">
+        <v>2.9117043121149799</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20.006592986270402</v>
+      </c>
+      <c r="B27">
+        <v>2.6160164271047202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>25.012521641099902</v>
+      </c>
+      <c r="B28">
+        <v>1.2607802874743299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>30.019507186858299</v>
+      </c>
+      <c r="B29">
+        <v>0.27515400410677399</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>3.60752103716208E-2</v>
+      </c>
+      <c r="B30">
+        <v>2.6406570841889101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4.0698151999999999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>4.9813383258847601</v>
+      </c>
+      <c r="B31">
+        <v>4.0698151950718602</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>5.1540041099999998</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>10.062869911825</v>
+      </c>
+      <c r="B32">
+        <v>5.1540041067761697</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
         <v>200</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>5.3264887099999996</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>15.0045395981801</v>
+      </c>
+      <c r="B33">
+        <v>5.3264887063654998</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>200</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>4.98151951</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>20.013427547610402</v>
+      </c>
+      <c r="B34">
+        <v>5.0061601642710398</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
         <v>200</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>25.020554012159199</v>
+      </c>
+      <c r="B35">
+        <v>4.0698151950718602</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>30.026200829407699</v>
+      </c>
+      <c r="B36">
+        <v>2.6160164271047202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>3.70616419052218E-2</v>
+      </c>
+      <c r="B37">
+        <v>2.9856262833675502</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>400</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>5.0527841526754296</v>
+      </c>
+      <c r="B38">
+        <v>5.0554414784394197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>400</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>9.9983291057695993</v>
+      </c>
+      <c r="B39">
+        <v>6.5831622176591296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>400</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>15.011867375286799</v>
+      </c>
+      <c r="B40">
+        <v>7.8891170431211401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>400</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>20.021953134436501</v>
+      </c>
+      <c r="B41">
+        <v>7.9876796714578999</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>400</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>25.0283750050328</v>
+      </c>
+      <c r="B42">
+        <v>6.8049281314168297</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>400</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>30.033176309538099</v>
+      </c>
+      <c r="B43">
+        <v>5.0554414784394197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>400</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>3.8470829810360999E-2</v>
+      </c>
+      <c r="B44">
+        <v>3.47843942505133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>800</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>4.98627048355275</v>
+      </c>
+      <c r="B45">
+        <v>5.7946611909650896</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>800</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>10.002274831904</v>
+      </c>
+      <c r="B46">
+        <v>7.9630390143737104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>800</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>15.0162358577928</v>
+      </c>
+      <c r="B47">
+        <v>9.4168377823408598</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>800</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>19.9615694327012</v>
+      </c>
+      <c r="B48">
+        <v>10.870636550307999</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>800</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>25.036971051254099</v>
+      </c>
+      <c r="B49">
+        <v>9.8110882956878793</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>800</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>30.039940411482799</v>
+      </c>
+      <c r="B50">
+        <v>7.4209445585215503</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>800</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>3.88935861819064E-2</v>
+      </c>
+      <c r="B51">
+        <v>3.6262833675564599</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>1200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>4.9867636993195497</v>
+      </c>
+      <c r="B52">
+        <v>5.9671457905544099</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>10.072170551998999</v>
+      </c>
+      <c r="B53">
+        <v>8.4065708418891099</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>15.018701936626799</v>
+      </c>
+      <c r="B54">
+        <v>10.2792607802874</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>19.964528727302</v>
+      </c>
+      <c r="B55">
+        <v>11.9055441478439</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>1200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>25.042678262269899</v>
+      </c>
+      <c r="B56">
+        <v>11.806981519507101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>30.044449812779298</v>
+      </c>
+      <c r="B57">
+        <v>8.9979466119096401</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>2.7307844671049901E-2</v>
+      </c>
+      <c r="B58">
+        <v>-0.46878198567042101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>5.0462503996637702</v>
+      </c>
+      <c r="B59">
+        <v>-0.71443193449334697</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>9.9954453410765893</v>
+      </c>
+      <c r="B60">
+        <v>-1.30399181166837</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>15.0119245595655</v>
+      </c>
+      <c r="B61">
+        <v>-2.40941658137154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>20.0276295865817</v>
+      </c>
+      <c r="B62">
+        <v>-3.7850562947799302</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>25.042771565254299</v>
+      </c>
+      <c r="B63">
+        <v>-5.3572159672466704</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>30.056435542024499</v>
+      </c>
+      <c r="B64">
+        <v>-7.4452405322415496</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>-3.8920716760536302E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.415557830092119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>4.0698151999999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>4.9806552676188804</v>
+      </c>
+      <c r="B66">
+        <v>0.39099283520982497</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>10.0001608709553</v>
+      </c>
+      <c r="B67">
+        <v>0.34186284544524098</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>15.0178365671746</v>
+      </c>
+      <c r="B68">
+        <v>-0.345957011258956</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>20.033752737319801</v>
+      </c>
+      <c r="B69">
+        <v>-1.6479017400204701</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>25.053047197527398</v>
+      </c>
+      <c r="B70">
+        <v>-1.7707267144319301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>30.068963367672499</v>
+      </c>
+      <c r="B71">
+        <v>-3.0726714431934399</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>-3.7865001116038799E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.78403275332651001</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>5.0510363105855101</v>
+      </c>
+      <c r="B73">
+        <v>0.95598771750255696</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>10.002905731630999</v>
+      </c>
+      <c r="B74">
+        <v>1.2998976458546501</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>15.021426000365899</v>
+      </c>
+      <c r="B75">
+        <v>0.90685772773797302</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>20.037694075725899</v>
+      </c>
+      <c r="B76">
+        <v>-0.27226202661207499</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>25.055299390902299</v>
+      </c>
+      <c r="B77">
+        <v>-0.984646878198567</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>30.0719897525201</v>
+      </c>
+      <c r="B78">
+        <v>-2.0163766632548601</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>3.2023374549808602E-2</v>
+      </c>
+      <c r="B79">
+        <v>1.1770726714431901</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>4.9843150818531496</v>
+      </c>
+      <c r="B80">
+        <v>1.6683725690890401</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>10.0758204921444</v>
+      </c>
+      <c r="B81">
+        <v>2.7492323439099202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>15.026141530244701</v>
+      </c>
+      <c r="B82">
+        <v>2.55271238485158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>20.042198462475799</v>
+      </c>
+      <c r="B83">
+        <v>1.2998976458546501</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>25.0588888240936</v>
+      </c>
+      <c r="B84">
+        <v>0.26816786079836402</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>30.076282996141099</v>
+      </c>
+      <c r="B85">
+        <v>-0.517911975435005</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>3.2656803936518403E-2</v>
+      </c>
+      <c r="B86">
+        <v>1.3981576253838199</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
         <v>200</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>2.6160164300000002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>5.0548368869056999</v>
+      </c>
+      <c r="B87">
+        <v>2.2824974411463601</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
         <v>200</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1.4579055400000001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>10.011914505130701</v>
+      </c>
+      <c r="B88">
+        <v>4.4442169907881199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
         <v>200</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2.3449692</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>15.1015900083049</v>
+      </c>
+      <c r="B89">
+        <v>4.8863868986693904</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
         <v>200</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4.5133470200000003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>20.0483919942569</v>
+      </c>
+      <c r="B90">
+        <v>3.4616171954964101</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
         <v>200</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>5.0061601600000003</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>25.063885878144202</v>
+      </c>
+      <c r="B91">
+        <v>2.0122824974411402</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91">
         <v>200</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>3.5277207399999999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>30.081702336449499</v>
+      </c>
+      <c r="B92">
+        <v>1.37359263050153</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
         <v>200</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>2.0739219699999998</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>1.43326489</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>3.3079090194313203E-2</v>
+      </c>
+      <c r="B93">
+        <v>1.5455475946775801</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>400</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>4.9876229908725804</v>
+      </c>
+      <c r="B94">
+        <v>2.8229273285568</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>400</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>10.016700416052499</v>
+      </c>
+      <c r="B95">
+        <v>6.1146366427840304</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>400</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>15.038950880064601</v>
+      </c>
+      <c r="B96">
+        <v>7.0235414534288596</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>400</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>20.053670572479401</v>
+      </c>
+      <c r="B97">
+        <v>5.3039918116683697</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>400</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>25.068671789065998</v>
+      </c>
+      <c r="B98">
+        <v>3.6827021494370502</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>400</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>30.086699390500101</v>
+      </c>
+      <c r="B99">
+        <v>3.11770726714431</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>400</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>3.3290233323206998E-2</v>
+      </c>
+      <c r="B100">
+        <v>1.61924257932446</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>800</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>5.0579336527962298</v>
+      </c>
+      <c r="B101">
+        <v>3.3633572159672398</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>800</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>10.0209232786305</v>
+      </c>
+      <c r="B102">
+        <v>7.5885363357215896</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>800</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>14.976030227652499</v>
+      </c>
+      <c r="B103">
+        <v>9.0624360286591603</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>800</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>20.058386102358099</v>
+      </c>
+      <c r="B104">
+        <v>6.9498464687819803</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>800</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>25.0725427464291</v>
+      </c>
+      <c r="B105">
+        <v>5.0337768679631498</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>800</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>30.0904295857774</v>
+      </c>
+      <c r="B106">
+        <v>4.4196519959058298</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>800</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>3.34309954091409E-2</v>
+      </c>
+      <c r="B107">
+        <v>1.6683725690890401</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>1200</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>5.0582855580110699</v>
+      </c>
+      <c r="B108">
+        <v>3.4861821903786998</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>1200</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>10.0233162340913</v>
+      </c>
+      <c r="B109">
+        <v>8.4237461617195404</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>1200</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>14.979056612500001</v>
+      </c>
+      <c r="B110">
+        <v>10.1187308085977</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>1200</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>20.061905154506501</v>
+      </c>
+      <c r="B111">
+        <v>8.1780962128966195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1200</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>25.074583796675199</v>
+      </c>
+      <c r="B112">
+        <v>5.7461617195496402</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>1200</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>30.092892922281202</v>
+      </c>
+      <c r="B113">
+        <v>5.2794268167860796</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>1200</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
